--- a/docs/stm32_pin_config.xlsx
+++ b/docs/stm32_pin_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodin\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usmcl-my.sharepoint.com/personal/rodrigo_sierral_usm_cl/Documents/Documentos/Altium Designer/phoenix-c1/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F5E68D-A315-4AA5-B61D-5B057C0CD725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{20F5E68D-A315-4AA5-B61D-5B057C0CD725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A753DB47-02FD-4939-B7C4-981BAF6C155E}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{92046D1F-21A8-42E9-9F8A-E6BE621ABA3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92046D1F-21A8-42E9-9F8A-E6BE621ABA3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="134">
   <si>
     <t>Pines STM32G4</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>I2C_AS5600_SDA</t>
+  </si>
+  <si>
+    <t>DRV8323_CS</t>
+  </si>
+  <si>
+    <t>Gate Driver SPI CS</t>
   </si>
 </sst>
 </file>
@@ -517,21 +523,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,29 +872,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75859F8-5A06-45A8-892A-4BE5DDB4CBD4}">
   <dimension ref="B2:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -913,75 +917,75 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="F7" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -995,7 +999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1012,24 +1016,24 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -1063,105 +1067,105 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="F16" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="F18" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>49</v>
       </c>
@@ -1178,29 +1182,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>117</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>52</v>
       </c>
@@ -1231,8 +1235,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C25" t="s">
@@ -1248,24 +1252,24 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>60</v>
       </c>
@@ -1282,7 +1286,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>65</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>68</v>
       </c>
@@ -1327,17 +1331,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -1354,192 +1358,204 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="F34" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+      <c r="F35" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
+      <c r="F36" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+      <c r="F38" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="F39" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+      <c r="F40" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="C42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="F43" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="F44" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>109</v>
       </c>
@@ -1556,17 +1572,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>10</v>
       </c>
